--- a/psp forms/PSP2 Project Plan Summary.xlsx
+++ b/psp forms/PSP2 Project Plan Summary.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Settings" sheetId="1" r:id="rId1"/>
-    <sheet name="Overall Metrics" sheetId="2" r:id="rId2"/>
+    <sheet name="Project Settings" sheetId="2" r:id="rId1"/>
+    <sheet name="Overall Metrics" sheetId="1" r:id="rId2"/>
     <sheet name="Program Size" sheetId="3" r:id="rId3"/>
     <sheet name="Time In Phase" sheetId="4" r:id="rId4"/>
     <sheet name="Defects Injected" sheetId="5" r:id="rId5"/>
@@ -21,13 +21,13 @@
     <sheet name="Defect Removal Efficiency" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="excel__15" localSheetId="0">'Project Settings'!$A$1:$K$18</definedName>
-    <definedName name="excel__16" localSheetId="1">'Overall Metrics'!$A$1:$D$25</definedName>
-    <definedName name="excel__17" localSheetId="2">'Program Size'!$A$1:$D$24</definedName>
-    <definedName name="excel__18" localSheetId="3">'Time In Phase'!$A$1:$E$25</definedName>
-    <definedName name="excel__19" localSheetId="4">'Defects Injected'!$A$1:$E$25</definedName>
-    <definedName name="excel__20" localSheetId="5">'Defects Removed'!$A$1:$E$25</definedName>
-    <definedName name="excel__21" localSheetId="6">'Defect Removal Efficiency'!$A$1:$D$22</definedName>
+    <definedName name="excel__25" localSheetId="1">'Overall Metrics'!$A$1:$D$25</definedName>
+    <definedName name="excel__26" localSheetId="0">'Project Settings'!$A$1:$K$18</definedName>
+    <definedName name="excel__27" localSheetId="2">'Program Size'!$A$1:$D$24</definedName>
+    <definedName name="excel__28" localSheetId="3">'Time In Phase'!$A$1:$E$25</definedName>
+    <definedName name="excel__29" localSheetId="4">'Defects Injected'!$A$1:$E$25</definedName>
+    <definedName name="excel__30" localSheetId="5">'Defects Removed'!$A$1:$E$25</definedName>
+    <definedName name="excel__31" localSheetId="6">'Defect Removal Efficiency'!$A$1:$D$22</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -35,32 +35,32 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\jaher\Downloads\excel (15).iqy" name="excel (15)" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\jaher\Downloads\excel (25).iqy" name="excel (25)" type="4" refreshedVersion="6" background="1" saveData="1">
+    <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fcms%2Fpsp2%2Fsummary%3Fsection%3D102%26frame%3Dcontent&amp;EXPORT=excel" htmlFormat="all"/>
+  </connection>
+  <connection id="2" odcFile="C:\Users\jaher\Downloads\excel (26).iqy" name="excel (26)" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fcms%2Fpsp2%2Fsummary%3Fframe%3Dcontent%26section%3D116&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
-  <connection id="2" odcFile="C:\Users\jaher\Downloads\excel (16).iqy" name="excel (16)" type="4" refreshedVersion="6" background="1" saveData="1">
-    <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fcms%2Fpsp2%2Fsummary%3Fframe%3Dcontent%26section%3D102&amp;EXPORT=excel" htmlFormat="all"/>
-  </connection>
-  <connection id="3" odcFile="C:\Users\jaher\Downloads\excel (17).iqy" name="excel (17)" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="3" odcFile="C:\Users\jaher\Downloads\excel (27).iqy" name="excel (27)" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fcms%2Fpsp2%2Fsummary%3Fframe%3Dcontent%26section%3D105&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
-  <connection id="4" odcFile="C:\Users\jaher\Downloads\excel (18).iqy" name="excel (18)" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="4" odcFile="C:\Users\jaher\Downloads\excel (28).iqy" name="excel (28)" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fcms%2Fpsp2%2Fsummary%3Fframe%3Dcontent%26section%3D106&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
-  <connection id="5" odcFile="C:\Users\jaher\Downloads\excel (19).iqy" name="excel (19)" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="5" odcFile="C:\Users\jaher\Downloads\excel (29).iqy" name="excel (29)" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fcms%2Fpsp2%2Fsummary%3Fframe%3Dcontent%26section%3D110&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
-  <connection id="6" odcFile="C:\Users\jaher\Downloads\excel (20).iqy" name="excel (20)" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="6" odcFile="C:\Users\jaher\Downloads\excel (30).iqy" name="excel (30)" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fcms%2Fpsp2%2Fsummary%3Fframe%3Dcontent%26section%3D111&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
-  <connection id="7" odcFile="C:\Users\jaher\Downloads\excel (21).iqy" name="excel (21)" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="7" odcFile="C:\Users\jaher\Downloads\excel (31).iqy" name="excel (31)" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/reports/form2html.class?uri=%2FNon%2BProject%2FPSP%2BFundamentals%2B%2526%2BAdvanced%2FProgram%2B4%2F%2Fcms%2Fpsp2%2Fsummary%3Fframe%3Dcontent%26section%3D112&amp;EXPORT=excel" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="69">
   <si>
     <t>/Non Project/PSP Fundamentals &amp; Advanced/Program 4</t>
   </si>
@@ -68,6 +68,57 @@
     <t>PSP2 Project Plan Summary</t>
   </si>
   <si>
+    <t>Overall Metrics</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>A la Fecha</t>
+  </si>
+  <si>
+    <t>Size/Hour</t>
+  </si>
+  <si>
+    <t>Planned Time</t>
+  </si>
+  <si>
+    <t>Actual Tiempo</t>
+  </si>
+  <si>
+    <t>CPI (Cost-Performance Index)</t>
+  </si>
+  <si>
+    <t>% Reuse</t>
+  </si>
+  <si>
+    <t>% New Reusable</t>
+  </si>
+  <si>
+    <t>Test Defects/KLOC or equivalent</t>
+  </si>
+  <si>
+    <t>Total Defects/KLOC or equivalent</t>
+  </si>
+  <si>
+    <t>Yield %</t>
+  </si>
+  <si>
+    <t>Code Review Rate</t>
+  </si>
+  <si>
+    <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
+  </si>
+  <si>
+    <t>Reporte generado a las 04:52 PM el 25/03/2017</t>
+  </si>
+  <si>
     <t>Project Settings</t>
   </si>
   <si>
@@ -86,7 +137,7 @@
     <t>Completion Date</t>
   </si>
   <si>
-    <t>mar 19, 2017 06:52:43 PM</t>
+    <t>mar 19, 2017 05:23:31 PM</t>
   </si>
   <si>
     <t xml:space="preserve"> Completed: *</t>
@@ -101,58 +152,7 @@
     <t>Java</t>
   </si>
   <si>
-    <t>Adapted from "PSP Materials," copyright © 2006 Carnegie Mellon University. Used by permission.</t>
-  </si>
-  <si>
-    <t>Reporte generado a las 07:09 PM el 19/03/2017</t>
-  </si>
-  <si>
-    <t>Overall Metrics</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Plan</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>A la Fecha</t>
-  </si>
-  <si>
-    <t>Size/Hour</t>
-  </si>
-  <si>
-    <t>Planned Time</t>
-  </si>
-  <si>
-    <t>Actual Tiempo</t>
-  </si>
-  <si>
-    <t>CPI (Cost-Performance Index)</t>
-  </si>
-  <si>
-    <t>% Reuse</t>
-  </si>
-  <si>
-    <t>% New Reusable</t>
-  </si>
-  <si>
-    <t>Test Defects/KLOC or equivalent</t>
-  </si>
-  <si>
-    <t>Total Defects/KLOC or equivalent</t>
-  </si>
-  <si>
-    <t>Yield %</t>
-  </si>
-  <si>
-    <t>Code Review Rate</t>
-  </si>
-  <si>
-    <t>Reporte generado a las 07:11 PM el 19/03/2017</t>
+    <t>Reporte generado a las 04:53 PM el 25/03/2017</t>
   </si>
   <si>
     <t>Program Size</t>
@@ -185,6 +185,9 @@
     <t>Estimated Proxy Size (E)</t>
   </si>
   <si>
+    <t>Reporte generado a las 04:54 PM el 25/03/2017</t>
+  </si>
+  <si>
     <t>Time In Phase</t>
   </si>
   <si>
@@ -218,7 +221,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Reporte generado a las 07:12 PM el 19/03/2017</t>
+    <t>Reporte generado a las 04:55 PM el 25/03/2017</t>
   </si>
   <si>
     <t>Defects Injected</t>
@@ -233,9 +236,6 @@
     <t>After Development</t>
   </si>
   <si>
-    <t>Reporte generado a las 07:13 PM el 19/03/2017</t>
-  </si>
-  <si>
     <t>Defect Removal Efficiency</t>
   </si>
   <si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>DRL (Compile/UT)</t>
+  </si>
+  <si>
+    <t>Reporte generado a las 04:56 PM el 25/03/2017</t>
   </si>
 </sst>
 </file>
@@ -432,22 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -457,6 +444,22 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -818,25 +821,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -859,7 +853,16 @@
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -921,31 +924,31 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (15)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (26)" preserveFormatting="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (16)" preserveFormatting="0" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (25)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (17)" preserveFormatting="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (27)" preserveFormatting="0" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (18)" preserveFormatting="0" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (28)" preserveFormatting="0" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (19)" preserveFormatting="0" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (29)" preserveFormatting="0" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (20)" preserveFormatting="0" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (30)" preserveFormatting="0" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (21)" preserveFormatting="0" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (31)" preserveFormatting="0" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1248,12 +1251,12 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -1274,108 +1277,108 @@
     </row>
     <row r="5" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
+      <c r="A14" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>14</v>
+      <c r="A16" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1396,12 +1399,12 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="7.140625" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
@@ -1425,156 +1428,156 @@
     </row>
     <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>28.2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10">
+        <v>0.7402777777777777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.78888888888888886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.186</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>34.1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>18</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="B16" s="11">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="11">
-        <v>28.2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D8" s="4">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.23819444444444446</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="13">
-        <v>0.68888888888888899</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0.78888888888888886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="14">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.13600000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0</v>
-      </c>
-      <c r="C13" s="17">
-        <v>0</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11">
-        <v>34.1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>9.01</v>
-      </c>
-      <c r="D15" s="4">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="14">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="C16" s="17">
-        <v>1</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0.69199999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>902</v>
       </c>
-      <c r="C17" s="4">
-        <v>278</v>
-      </c>
-      <c r="D17" s="4">
-        <v>591</v>
+      <c r="C17" s="7">
+        <v>256</v>
+      </c>
+      <c r="D17" s="7">
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,13 +1587,13 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
+      <c r="A21" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>30</v>
+      <c r="A23" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1606,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,143 +1639,143 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>151</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>151</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>100</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>52</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>23</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="11">
-        <v>151</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="8">
+        <v>186</v>
+      </c>
+      <c r="C11" s="7">
         <v>88</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>54</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="7">
         <v>55</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="11">
-        <v>161</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="8">
+        <v>196</v>
+      </c>
+      <c r="C13" s="7">
         <v>111</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="11">
-        <v>256</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="8">
+        <v>291</v>
+      </c>
+      <c r="C14" s="7">
         <v>242</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="11">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="11">
-        <v>184</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="8">
+        <v>223</v>
+      </c>
+      <c r="C16" s="7">
         <v>308</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="7">
         <v>742</v>
       </c>
     </row>
@@ -1783,13 +1786,13 @@
       <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>13</v>
+      <c r="A20" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>30</v>
+      <c r="A22" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1802,7 +1805,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1832,180 +1835,180 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>42</v>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="12">
-        <v>5.347222222222222E-2</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="C9" s="10">
         <v>9.1666666666666674E-2</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>0.20625000000000002</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="12">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="A10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="9">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="C10" s="10">
         <v>2.361111111111111E-2</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>0.10416666666666667</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="12">
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="A11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="C11" s="10">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>1.5972222222222224E-2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="12">
-        <v>8.6805555555555566E-2</v>
-      </c>
-      <c r="C12" s="13">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.26944444444444443</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.34200000000000003</v>
+      <c r="A12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="C12" s="10">
+        <v>8.1944444444444445E-2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.26805555555555555</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="12">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="D13" s="13">
-        <v>3.2638888888888891E-2</v>
-      </c>
-      <c r="E13" s="15">
-        <v>4.1399999999999999E-2</v>
+      <c r="A13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="9">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4.3099999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>7.3099999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="C15" s="10">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="C14" s="13">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="D14" s="13">
-        <v>5.7638888888888885E-2</v>
-      </c>
-      <c r="E14" s="15">
-        <v>7.3099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="12">
+      <c r="D15" s="10">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>6.8699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="9">
         <v>1.4583333333333332E-2</v>
       </c>
-      <c r="C15" s="13">
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="D15" s="13">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="E15" s="15">
-        <v>6.8699999999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="12">
-        <v>1.1805555555555555E-2</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="C16" s="10">
         <v>2.2916666666666669E-2</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <v>6.1600000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="12">
-        <v>0.23819444444444446</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="A17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="C17" s="10">
         <v>0.27777777777777779</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>0.78888888888888886</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -2014,13 +2017,13 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
+      <c r="A21" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>52</v>
+      <c r="A23" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2033,7 +2036,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,180 +2066,180 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>42</v>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="A9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0.46</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="15">
-        <v>7.6899999999999996E-2</v>
+      <c r="E10" s="12">
+        <v>7.1400000000000005E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2.74</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="A11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3.33</v>
+      </c>
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>7</v>
       </c>
-      <c r="E11" s="15">
-        <v>0.53800000000000003</v>
+      <c r="E11" s="14">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="11">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="A12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="11">
-        <v>2.29</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.38500000000000001</v>
+      <c r="A13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2.78</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.42899999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
+      <c r="A14" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="11">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="A15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="11">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="A16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="11">
-        <v>5.49</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>13</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="A17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="8">
+        <v>6.67</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -2245,13 +2248,13 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
+      <c r="A21" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>52</v>
+      <c r="A23" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2267,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,175 +2297,175 @@
     </row>
     <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>42</v>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="11">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
+      <c r="A10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="11">
-        <v>0.46</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="A11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="15">
-        <v>7.6899999999999996E-2</v>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="11">
-        <v>3.2</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="A12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3.89</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
-        <v>8</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.61499999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="11">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0</v>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>7.1400000000000005E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="11">
-        <v>1.83</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="A14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
         <v>4</v>
       </c>
-      <c r="E14" s="15">
-        <v>0.308</v>
+      <c r="E14" s="12">
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="11">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="11">
-        <v>5.49</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>13</v>
-      </c>
-      <c r="E16" s="4"/>
+      <c r="A16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="8">
+        <v>6.67</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>14</v>
+      </c>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="11">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="A17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2473,13 +2476,13 @@
       <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>13</v>
+      <c r="A21" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>57</v>
+      <c r="A23" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2492,7 +2495,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2525,115 +2528,115 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>19</v>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>4.53</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2.61</v>
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5.22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="11">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2.31</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1.22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>3.47</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
         <v>2.89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2644,13 +2647,13 @@
       <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
+      <c r="A18" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>57</v>
+      <c r="A20" s="17" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
